--- a/medicine/Psychotrope/Théâtre_national_du_Costa_Rica/Théâtre_national_du_Costa_Rica.xlsx
+++ b/medicine/Psychotrope/Théâtre_national_du_Costa_Rica/Théâtre_national_du_Costa_Rica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_national_du_Costa_Rica</t>
+          <t>Théâtre_national_du_Costa_Rica</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Théâtre national du Costa Rica est le principal théâtre du Costa Rica. Il se trouve au centre de San José, capitale du Costa Rica, entre la Place Juan Mora Fernández, nommée en l'honneur du premier Chef d'État du Costa Rica, et la Place de la Culture. Le théâtre est un symbole de l’âge d'or du café et de la Belle Époque au Costa Rica.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_national_du_Costa_Rica</t>
+          <t>Théâtre_national_du_Costa_Rica</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La construction du Théâtre national commença en janvier 1891, lorsque la ville de San José comptait autour de 20.000 habitants. Le théâtre, comme représentation artistique est présent au Costa Rica depuis la période coloniale, déterminé par les thèmes religieux, et qui se développa dans des espaces à prédominance privés. 
 Avec l'indépendance (1821) et la construction de la naissante république, le rôle de l'État fut associé à l'obtention du "progrès". Lors de l'administration de Juan Rafael Mora Porras (1849-1859) est inaugurée le Théâtre Mora, ultérieurement Théâtre Municipal, à caractère public, lequel concentra la réalisation d'événements artistiques du milieu urbain costaricien jusqu'en 1888, année de sa destruction par un tremblement de terre. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_national_du_Costa_Rica</t>
+          <t>Théâtre_national_du_Costa_Rica</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Architecture et décoration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parties les plus importantes du Théâtre national sont la façade, le vestibule, le grand escalier, le foyer et la salle.
 Le théâtre possède une architecture de style néo-Renaissance du plus pur style néoclassique, avec des marbres amenés d'Italie et une décoration intérieure avec des scènes associées au café ; la plus populaire des peintures du théâtre est de l'italien Aleardo Villa, faite en 1897 et connue populairement comme Allégorie du café et de la banane, dont le nom officiel est Allégorie du Commerce et de l'Agriculture du Costa Rica. Ce tableau décrit la vie économique du pays dans la deuxième partie du XIXe siècle, basée sur les monocultures du café et de la banane comme moteur du modèle agroexportateur. Cette peinture a été reproduite sur le billet de cinq colons pendant quelques décennies, à la fin des années 1960.
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Th%C3%A9%C3%A2tre_national_du_Costa_Rica</t>
+          <t>Théâtre_national_du_Costa_Rica</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Le théâtre actuel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Présentement, le Théâtre continue de proposer sa programmation culturelle dont les activités sont sélectionnées avec une grand soins afin de préserver une haute qualité des productions. C'est un des endroits où peut être entendue la série annuelle des concerts de l'Orchestre symphonique national du Costa Rica.
 Le Théâtre est également une attraction touristique en raison de sa magnifique architecture néo-classique. La direction propose des visites chaque heure le week-end. Le Théâtre possède un petit café et une boutique cadeaux. L'extérieur du Théâtre se visite aussi, ce qui permet d'apprécier les diverses statues représentant des allégories ou des personnalités artistiques. Le théâtre et les places aux alentours forment un des lieux les plus fréquentés par les Costariciens et les touristes de passage à San José.
